--- a/data/BaremoOrden.xlsx
+++ b/data/BaremoOrden.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\liquidacion_baremos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\liquidacion_baremos v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5508EC57-BE2C-4C36-9C13-FDC469A07210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DBA9A-D228-45C3-AB80-B0F4E972E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="76">
   <si>
     <t>Medio de acceso</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>REPONER DECO IPTV WIRELESS</t>
+  </si>
+  <si>
+    <t>Instalación de Equipo (Deco IPTV/Repetidor WiFi/Otros) con cableado UTP/coaxial coincidente con alta</t>
   </si>
 </sst>
 </file>
@@ -285,8 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,8 +325,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44A620C6-476A-4205-B358-D758E419E657}" name="BaremoOrden" displayName="BaremoOrden" ref="A1:J92" totalsRowShown="0">
-  <autoFilter ref="A1:J92" xr:uid="{44A620C6-476A-4205-B358-D758E419E657}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44A620C6-476A-4205-B358-D758E419E657}" name="BaremoOrden" displayName="BaremoOrden" ref="A1:J93" totalsRowShown="0">
+  <autoFilter ref="A1:J93" xr:uid="{44A620C6-476A-4205-B358-D758E419E657}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ALTATV"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{BDA6C202-48C2-45F0-9F75-0E4719D67006}" name="Medio de acceso"/>
     <tableColumn id="2" xr3:uid="{595EB4AA-ADD5-4A66-89A7-6BC7C8E8CA60}" name="TipoOrdenFinal"/>
@@ -602,9 +612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -652,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -684,7 +696,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -716,7 +728,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -748,7 +760,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -780,7 +792,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -812,7 +824,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -844,7 +856,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -876,7 +888,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -908,7 +920,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -940,7 +952,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -972,7 +984,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>61933.788999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1944,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +2008,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2168,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>61933.788999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>61933.788999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2380,7 +2392,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2520,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2700,7 +2712,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2732,7 +2744,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +2808,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>61933.788999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -2860,7 +2872,7 @@
         <v>61933.788999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2892,7 +2904,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2988,7 +3000,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3180,7 +3192,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3212,7 +3224,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3288,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>61933.788999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3340,7 +3352,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +3384,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3404,7 +3416,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3436,7 +3448,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3468,7 +3480,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3500,7 +3512,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3544,7 @@
         <v>61933.788999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3561,6 +3573,38 @@
         <v>1</v>
       </c>
       <c r="J92">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93">
+        <v>291481</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="J93" s="1">
         <v>89000</v>
       </c>
     </row>
